--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.20228377255522503, 0.16267650023453922, 0.12726831164056143, 0.12518901139632232, 0.3671427030140748, 0.14554010513854237, 0.13596012033354346, 0.11368610256417404, 0.09561022053693262, 0.06325720027941474, 0.07060911345884024, 0.07237921058027443, 0.10966245609834162, 0.1401772100435194, 0.10041024811725854, 0.0668958304710907, 0.02784687768461108, 0.05558976733911963, 0.08990897194346244]</t>
+    <t>[1.0, 0.1873333000678464, 0.15989578872708451, 0.11626070785454622, 0.10876975913107793, 0.350997585574195, 0.13713545332424257, 0.1272433161005007, 0.10332146253257464, 0.09095276999155319, 0.05123366092138888, 0.06277623973489015, 0.06821395031864988, 0.1061184329537056, 0.1343453511724172, 0.10333429991186058, 0.058335975817348576, 0.022203821518192685, 0.055624046857740396, 0.0794296460373645]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.22705239661064963, 0.17988360403380674, 0.18370218496126733, 0.15960375513752784, 0.252271328419774, 0.15539288602018475, 0.13370812630222562, 0.10512209370261381, 0.1191410545107181, 0.09481054235663657, 0.08325822052800276, 0.07161164162383542, 0.09637738743992473, 0.11788421245582827, 0.0826186371668529, 0.07285431965565738, 0.0576836779388001, 0.05734716468632466, 0.060289080468721674]</t>
+    <t>[0.9999999999999999, 0.19274740975337826, 0.17863288049736553, 0.1725629772628786, 0.13167441178245487, 0.22482260932903417, 0.13373839791816197, 0.1206297423717175, 0.08697401093940876, 0.1131989678200537, 0.0898575455680258, 0.07125574558675808, 0.060366348120504294, 0.08193788220872573, 0.11410330540668653, 0.07908147662351217, 0.06846799796251873, 0.05606624707904407, 0.04041045068113377, 0.0538187576527082]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0014563473723728747, -0.04086175134264834, -0.06870855205424087, -0.08130075073603629, 0.2716789365814485, -0.0002351373855570668, 0.038728912709676454, -0.0007993117053095164, -0.03483796237355698, -0.06388040172046135, -0.06413151182190131, -0.027580243464521988, 0.012534511062392874, 0.05275055167028347, 0.020187774941007177, -0.03562475749954847, -0.07968226944793948, -0.04784775323159723, 0.009156156248482598]</t>
+    <t>[0.9999999999999999, -0.014956569221195672, -0.037938405929444266, -0.058800682010841196, -0.08861236910342102, 0.2670971822762601, 0.0024866761280456693, 0.03625380556219252, -0.0037487363936883553, -0.0356862734468483, -0.06444497919471968, -0.05538384207485115, -0.03433465833814008, 0.005075150999292938, 0.049022571242987215, 0.024379307548419927, -0.03117608752834977, -0.08675870836231679, -0.04912994615634956, -0.0020935011942433816]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.004846527266885321, -0.0438405635776766, -0.07089783419345613, -0.08384042387291622, 0.2689830223481254, -0.0021539451244373393, 0.03729194196357781, -0.002052334463596128, -0.03575196879338397, -0.06425724073770196, -0.06466549597048658, -0.028214982947172115, 0.012263021079593914, 0.052496762119064455, 0.019900909227098376, -0.03596125543706273, -0.0797005179390171, -0.048048464686244755, 0.00915563909697059]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.021678171310174053, -0.03716825257054828, -0.06714239477651848, -0.04776216483649707, 0.22160801330035756, -0.025528235766241913, 0.019932531567171924, -0.015775755516603776, -0.030261227728658125, -0.06247205905942555, -0.058088403684193185, -0.023370608569804528, -0.0007132141744936319, 0.041379753862258964, 0.0017087979928617424, -0.03662244172896323, -0.06416890112673505, -0.04661948818274307, 0.012769301446215435]</t>
+    <t>[1.0, -0.018424165952097574, -0.04087257884018654, -0.06074400102566728, -0.09095607330997228, 0.2646456825111537, 0.0006926385550862907, 0.03515439485138993, -0.004883447409422598, -0.03660265808000995, -0.06476153087539963, -0.055719039971281456, -0.03478348039590044, 0.0048324013159589, 0.04867596919507801, 0.02423130534519844, -0.031391929720862376, -0.08669303558435171, -0.049253769337589674, -0.0023088554969375266]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.7354938038808728, 0.6257175474692295, 0.5273102186086286, 0.45300221106459904, 0.39703638613147807, 0.35684372394216635, 0.29706171005758164, 0.27975934339783937, 0.22613080073863737, 0.19710911042603455, 0.15702737711325362, 0.1600549349511534, 0.1141718676524015, 0.12941979485867208, 0.09579204829345618, 0.11466631345530649, 0.04657724252489246, 0.06616796429967463, 0.06466293059771713]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1.997186433010218E-05</v>
+        <v>-9.876121723689516E-07</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.780208627016614</v>
+        <v>0.7779485607697052</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0001159205106355226</v>
+        <v>0.0001238913583820764</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9358838115479986</v>
+        <v>0.9517684887459807</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.004096972279127004</v>
+        <v>-0.004218802717399324</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6917522748811119</v>
+        <v>0.6891555978228384</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>8.583817529437564E-05</v>
+        <v>8.714108966329977E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.004595438951464681</v>
+        <v>0.004848092790940782</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6250544330132463</v>
+        <v>0.6235916877011048</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6.343841559805757E-05</v>
+        <v>6.910064683416391E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001103970106513943</v>
+        <v>-0.0001024637953301668</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.604993169738602E-06</v>
+        <v>2.78780529691291E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09999999853467051</v>
+        <v>0.09999999791540318</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8799999871051004</v>
+        <v>0.8799999816555479</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001307439151577172</v>
+        <v>-0.0001210012476741032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.604993169973577E-06</v>
+        <v>2.787805297361218E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09999999854369067</v>
+        <v>0.09999999793148424</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8749999872572933</v>
+        <v>0.8749999819004871</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009999985291275684</v>
+        <v>0.009999979107990777</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.412080586049639E-05</v>
+        <v>-0.9572257340566337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.371234768483483E-06</v>
+        <v>2.478257337105272E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000409206915611</v>
+        <v>0.1000002937345969</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.875004045550012</v>
+        <v>0.8749997353894955</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01008897968694154</v>
+        <v>0.009999409117294467</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1.235046560754107</v>
+        <v>0.7789996684348611</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1873333000678464, 0.15989578872708451, 0.11626070785454622, 0.10876975913107793, 0.350997585574195, 0.13713545332424257, 0.1272433161005007, 0.10332146253257464, 0.09095276999155319, 0.05123366092138888, 0.06277623973489015, 0.06821395031864988, 0.1061184329537056, 0.1343453511724172, 0.10333429991186058, 0.058335975817348576, 0.022203821518192685, 0.055624046857740396, 0.0794296460373645]</t>
+    <t>[1.0, 0.042444042208733115, -0.06525893075824143, -0.13386091554960722, -0.141843799818121, 0.07274058752624805, 0.045143616602183106, 0.08921770942636527, 0.03986769419371143, -0.012113913895727262, -0.05386165828756274, -0.053046988554209556, -0.010995292523480863, 0.031006665695180142, 0.04891871539510201, 0.05209957675075428, -0.02374679178175997, -0.07537799001596233, -0.0577287462125393, -0.007678868302719258]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.19274740975337826, 0.17863288049736553, 0.1725629772628786, 0.13167441178245487, 0.22482260932903417, 0.13373839791816197, 0.1206297423717175, 0.08697401093940876, 0.1131989678200537, 0.0898575455680258, 0.07125574558675808, 0.060366348120504294, 0.08193788220872573, 0.11410330540668653, 0.07908147662351217, 0.06846799796251873, 0.05606624707904407, 0.04041045068113377, 0.0538187576527082]</t>
+    <t>[1.0, 0.060690226063435, -0.008833725873016295, -0.020834302150617334, -0.003636140522678801, 0.02614821909686638, 0.031522956545856816, 0.008118657786226747, -0.03095860354685157, 0.00017651892050305236, -0.0005104467177855892, -0.00397339997963235, -0.011169759097807899, 0.00967796645728476, -0.0011181906693349102, 0.003452933385109269, 0.0014297086090702862, -0.0045338104689218684, -0.02227651396774063, 0.00942221221060448]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999999, -0.014956569221195672, -0.037938405929444266, -0.058800682010841196, -0.08861236910342102, 0.2670971822762601, 0.0024866761280456693, 0.03625380556219252, -0.0037487363936883553, -0.0356862734468483, -0.06444497919471968, -0.05538384207485115, -0.03433465833814008, 0.005075150999292938, 0.049022571242987215, 0.024379307548419927, -0.03117608752834977, -0.08675870836231679, -0.04912994615634956, -0.0020935011942433816]</t>
+    <t>[0.9999999999999998, 0.012357492962631635, -0.041897869485219126, -0.11338866052667085, -0.1384362733883022, 0.08060941720695304, 0.04059442943797148, 0.09280765729387634, 0.03195247369253899, -0.0012946355068666148, -0.05634509208319152, -0.04913220961486098, -0.0009350634322762928, 0.030021757435706124, 0.06288455442221923, 0.03321474616296343, -0.03116132809520246, -0.07184643694663453, -0.05651114380674722, -0.008572561713874466]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.018424165952097574, -0.04087257884018654, -0.06074400102566728, -0.09095607330997228, 0.2646456825111537, 0.0006926385550862907, 0.03515439485138993, -0.004883447409422598, -0.03660265808000995, -0.06476153087539963, -0.055719039971281456, -0.03478348039590044, 0.0048324013159589, 0.04867596919507801, 0.02423130534519844, -0.031391929720862376, -0.08669303558435171, -0.049253769337589674, -0.0023088554969375266]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.7354938038808728, 0.6257175474692295, 0.5273102186086286, 0.45300221106459904, 0.39703638613147807, 0.35684372394216635, 0.29706171005758164, 0.27975934339783937, 0.22613080073863737, 0.19710911042603455, 0.15702737711325362, 0.1600549349511534, 0.1141718676524015, 0.12941979485867208, 0.09579204829345618, 0.11466631345530649, 0.04657724252489246, 0.06616796429967463, 0.06466293059771713]</t>
+    <t>[1.0, 0.009916331407689934, -0.04158202570150417, -0.11208756538988626, -0.13801407536688384, 0.08110801308057897, 0.04077138585653567, 0.09074770058620972, 0.031477066985036675, -0.000620840745211615, -0.05607867872585741, -0.048892134641987266, -0.00016740009862973158, 0.029763955116698076, 0.06139556733900561, 0.03302755527324361, -0.031591256590599984, -0.07022356713320509, -0.056227391857192534, -0.007471807964869248]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.01549967382447689, -0.06305333418596967, -0.13103786788743163, -0.14066349662268074, 0.07597667090088794, 0.040720923740686844, 0.08598092982130567, 0.037126887233776204, -0.011178407450791001, -0.052224035421663074, -0.05188161801630212, -0.01025922490539892, 0.02871551237705728, 0.046323865361173354, 0.051459217062425754, -0.02438111408929976, -0.07233995786557787, -0.0547576183642625, -0.006391946810907529]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.876121723689516E-07</v>
+        <v>0.004608914741986517</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7779485607697052</v>
+        <v>0.7720366540178962</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0001238913583820764</v>
+        <v>0.1027323818989097</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.004218802717399324</v>
+        <v>-0.1760813000353827</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6891555978228384</v>
+        <v>0.5578974034984903</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>8.714108966329977E-05</v>
+        <v>0.06096684403978454</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.004848092790940782</v>
+        <v>0.1800132670738299</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6235916877011048</v>
+        <v>0.5686648481703679</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6.910064683416391E-05</v>
+        <v>0.05926077320119479</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001024637953301668</v>
+        <v>0.001289819213325956</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.78780529691291E-06</v>
+        <v>0.1097345814219529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09999999791540318</v>
+        <v>0.05360915278735981</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8799999816555479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001210012476741032</v>
+        <v>7.952891389570492E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.787805297361218E-06</v>
+        <v>0.1094488122500895</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09999999793148424</v>
+        <v>0.02938445979303634</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8749999819004871</v>
+        <v>3.67403770383343E-09</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009999979107990777</v>
+        <v>0.05294583287547294</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.9572257340566337</v>
+        <v>0.005177315346083661</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.478257337105272E-06</v>
+        <v>0.09953637995064143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000002937345969</v>
+        <v>0.01037153509835083</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8749997353894955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009999409117294467</v>
+        <v>0.0403484376815639</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7789996684348611</v>
+        <v>0.7730712497222413</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.03333068125048129, -0.060855914526303595, -0.12529207285747068, -0.13671393478437294, 0.07748450942434583, 0.030879111913253616, 0.07148591329868809, 0.04405307672339311, -0.010735093546801315, -0.0474469392980698, -0.05492518840719008, -0.02273603598330219, 0.03151798796474543, 0.04268427730082412, 0.05184619207369717, -0.022327392927039207, -0.07794451660209872, -0.0590313926055568, -0.0035538530573255237]</t>
+    <t>[0.9999999999999999, 0.20228377255522503, 0.16267650023453922, 0.12726831164056143, 0.12518901139632232, 0.3671427030140748, 0.14554010513854237, 0.13596012033354346, 0.11368610256417404, 0.09561022053693262, 0.06325720027941474, 0.07060911345884024, 0.07237921058027443, 0.10966245609834162, 0.1401772100435194, 0.10041024811725854, 0.0668958304710907, 0.02784687768461108, 0.05558976733911963, 0.08990897194346244]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.06101708178295486, -0.012817448233076574, -0.012948003538452046, 0.007632141292726619, 0.014063267166190687, 0.011455937296394198, -0.00013673048014666486, -0.013316239817173536, 0.0063998031585140395, 0.00016924670398085068, 0.002431326127806928, -0.010663602692278503, 0.01138525598418737, 0.00411446648730152, -0.0005702826514913291, -0.016095940564977547, -0.0057711060904490005, -0.00876872909946914, -0.006003514158288723]</t>
+    <t>[0.9999999999999999, 0.22705239661064963, 0.17988360403380674, 0.18370218496126733, 0.15960375513752784, 0.252271328419774, 0.15539288602018475, 0.13370812630222562, 0.10512209370261381, 0.1191410545107181, 0.09481054235663657, 0.08325822052800276, 0.07161164162383542, 0.09637738743992473, 0.11788421245582827, 0.0826186371668529, 0.07285431965565738, 0.0576836779388001, 0.05734716468632466, 0.060289080468721674]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.008777266387239125, -0.04373039951522802, -0.11171111598499674, -0.12966791616329365, 0.0875951449386535, 0.028353404784525717, 0.07902615417057605, 0.03811740645754644, -0.008410819628887225, -0.050722679988951865, -0.05516459660379267, -0.0019586287117920984, 0.03062640886298041, 0.05016305494404467, 0.04159213940666515, -0.031032504348307805, -0.0758618919929029, -0.050804405818558725, -0.0016659623401986759]</t>
+    <t>[1.0, -0.0014563473723728747, -0.04086175134264834, -0.06870855205424087, -0.08130075073603629, 0.2716789365814485, -0.0002351373855570668, 0.038728912709676454, -0.0007993117053095164, -0.03483796237355698, -0.06388040172046135, -0.06413151182190131, -0.027580243464521988, 0.012534511062392874, 0.05275055167028347, 0.020187774941007177, -0.03562475749954847, -0.07968226944793948, -0.04784775323159723, 0.009156156248482598]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.007035753349484533, -0.04334830358124897, -0.11092713186804179, -0.12983021387323038, 0.08780715110644655, 0.02844766832126899, 0.07735468738749426, 0.037717300774203974, -0.008022500952082501, -0.050461437551969274, -0.054935640583553866, -0.0016608170183068278, 0.03056045545075726, 0.049594055467252436, 0.041569291111963697, -0.031185584680193, -0.0747706356999187, -0.05066636641669397, -0.0013044868120217692]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, 0.013124180568344449, -0.0594388806924419, -0.1232811188260782, -0.13647219459589013, 0.07997418574295145, 0.02815207792303577, 0.06905029862806608, 0.04238968759744346, -0.010521184720167005, -0.046053211918410726, -0.05406817981393272, -0.022411870883605044, 0.030314763525332036, 0.04128376972443552, 0.0517398399815248, -0.022475103148324377, -0.07568825534380959, -0.05685578245415957, -0.002679193173168135]</t>
+    <t>[1.0, -0.004846527266885321, -0.0438405635776766, -0.07089783419345613, -0.08384042387291622, 0.2689830223481254, -0.0021539451244373393, 0.03729194196357781, -0.002052334463596128, -0.03575196879338397, -0.06425724073770196, -0.06466549597048658, -0.028214982947172115, 0.012263021079593914, 0.052496762119064455, 0.019900909227098376, -0.03596125543706273, -0.0797005179390171, -0.048048464686244755, 0.00915563909697059]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.021678171310174053, -0.03716825257054828, -0.06714239477651848, -0.04776216483649707, 0.22160801330035756, -0.025528235766241913, 0.019932531567171924, -0.015775755516603776, -0.030261227728658125, -0.06247205905942555, -0.058088403684193185, -0.023370608569804528, -0.0007132141744936319, 0.041379753862258964, 0.0017087979928617424, -0.03662244172896323, -0.06416890112673505, -0.04661948818274307, 0.012769301446215435]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.006324655642185704</v>
+        <v>-1.997186433010218E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7781769004294369</v>
+        <v>0.780208627016614</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1039675540777368</v>
+        <v>0.0001159205106355226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1711666254946616</v>
+        <v>-0.004096972279127004</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5731353535829598</v>
+        <v>0.6917522748811119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06063811211534603</v>
+        <v>8.583817529437564E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1806201089192848</v>
+        <v>0.004595438951464681</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5801435716358165</v>
+        <v>0.6250544330132463</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06105198824199792</v>
+        <v>6.343841559805757E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0009404698179589239</v>
+        <v>-0.0001103970106513943</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1120141493429178</v>
+        <v>2.604993169738602E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04206799605786762</v>
+        <v>0.09999999853467051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8799999871051004</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001149594724730345</v>
+        <v>-0.0001307439151577172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1117718293276734</v>
+        <v>2.604993169973577E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.02524127446244567</v>
+        <v>0.09999999854369067</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8749999872572933</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.03749703249453493</v>
+        <v>0.009999985291275684</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.006724855685155319</v>
+        <v>-5.412080586049639E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1016037523042903</v>
+        <v>2.371234768483483E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.008099197812854945</v>
+        <v>0.1000409206915611</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.875004045550012</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0286355934679489</v>
+        <v>0.01008897968694154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7785765463436717</v>
+        <v>1.235046560754107</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.20228377255522503, 0.16267650023453922, 0.12726831164056143, 0.12518901139632232, 0.3671427030140748, 0.14554010513854237, 0.13596012033354346, 0.11368610256417404, 0.09561022053693262, 0.06325720027941474, 0.07060911345884024, 0.07237921058027443, 0.10966245609834162, 0.1401772100435194, 0.10041024811725854, 0.0668958304710907, 0.02784687768461108, 0.05558976733911963, 0.08990897194346244]</t>
+    <t>[1.0, 0.20228377255522534, 0.1626765002345395, 0.1272683116405617, 0.12518901139632263, 0.36714270301407437, 0.1455401051385424, 0.13596012033354346, 0.11368610256417393, 0.09561022053693263, 0.06325720027941484, 0.07060911345884031, 0.07237921058027443, 0.10966245609834159, 0.1401772100435193, 0.10041024811725852, 0.06689583047109077, 0.02784687768461122, 0.05558976733911971, 0.08990897194346256]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.22705239661064963, 0.17988360403380674, 0.18370218496126733, 0.15960375513752784, 0.252271328419774, 0.15539288602018475, 0.13370812630222562, 0.10512209370261381, 0.1191410545107181, 0.09481054235663657, 0.08325822052800276, 0.07161164162383542, 0.09637738743992473, 0.11788421245582827, 0.0826186371668529, 0.07285431965565738, 0.0576836779388001, 0.05734716468632466, 0.060289080468721674]</t>
+    <t>[0.9999999999999999, 0.22705239661064977, 0.17988360403380693, 0.1837021849612675, 0.15960375513752798, 0.25227132841977407, 0.15539288602018478, 0.1337081263022256, 0.10512209370261387, 0.11914105451071809, 0.0948105423566367, 0.08325822052800282, 0.07161164162383553, 0.09637738743992472, 0.11788421245582827, 0.08261863716685303, 0.0728543196556575, 0.057683677938800144, 0.05734716468632473, 0.06028908046872166]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0014563473723728747, -0.04086175134264834, -0.06870855205424087, -0.08130075073603629, 0.2716789365814485, -0.0002351373855570668, 0.038728912709676454, -0.0007993117053095164, -0.03483796237355698, -0.06388040172046135, -0.06413151182190131, -0.027580243464521988, 0.012534511062392874, 0.05275055167028347, 0.020187774941007177, -0.03562475749954847, -0.07968226944793948, -0.04784775323159723, 0.009156156248482598]</t>
+    <t>[1.0, -0.001456347372372873, -0.040861751342648314, -0.06870855205424087, -0.08130075073603626, 0.27167893658144854, -0.00023513738555706274, 0.03872891270967646, -0.0007993117053095138, -0.034837962373557, -0.06388040172046137, -0.06413151182190135, -0.02758024346452196, 0.012534511062392869, 0.0527505516702835, 0.02018777494100718, -0.035624757499548465, -0.07968226944793956, -0.04784775323159724, 0.009156156248482605]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.004846527266885321, -0.0438405635776766, -0.07089783419345613, -0.08384042387291622, 0.2689830223481254, -0.0021539451244373393, 0.03729194196357781, -0.002052334463596128, -0.03575196879338397, -0.06425724073770196, -0.06466549597048658, -0.028214982947172115, 0.012263021079593914, 0.052496762119064455, 0.019900909227098376, -0.03596125543706273, -0.0797005179390171, -0.048048464686244755, 0.00915563909697059]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.021678171310174053, -0.03716825257054828, -0.06714239477651848, -0.04776216483649707, 0.22160801330035756, -0.025528235766241913, 0.019932531567171924, -0.015775755516603776, -0.030261227728658125, -0.06247205905942555, -0.058088403684193185, -0.023370608569804528, -0.0007132141744936319, 0.041379753862258964, 0.0017087979928617424, -0.03662244172896323, -0.06416890112673505, -0.04661948818274307, 0.012769301446215435]</t>
+    <t>[1.0, -0.0048465272668853105, -0.0438405635776766, -0.07089783419345616, -0.08384042387291622, 0.2689830223481254, -0.0021539451244373398, 0.03729194196357782, -0.0020523344635961214, -0.035751968793383965, -0.06425724073770199, -0.0646654959704866, -0.028214982947172104, 0.01226302107959392, 0.05249676211906443, 0.01990090922709835, -0.03596125543706273, -0.07970051793901711, -0.04804846468624477, 0.009155639096970576]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.007510241321519432, -0.022138413131823978, -0.048273785307638074, -0.060417014535658065, 0.22031044290641605, -0.003321282990823561, 0.01050557825779284, -0.011216951170975242, -0.03803793084608706, -0.04947181443514144, -0.055137450919518216, -0.040264399374996825, 0.005605409038162248, 0.037993160187998226, 0.01800059880742834, -0.03141458078521397, -0.0695608954597607, -0.04618869336081525, 0.007682587766036956]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1.997186433010218E-05</v>
+        <v>-1.997186433010199E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.780208627016614</v>
+        <v>0.7802086270166132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9358838115479986</v>
+        <v>0.4834400731930467</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.004096972279127004</v>
+        <v>-0.004096972279127001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6917522748811119</v>
+        <v>0.6917522748811116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.004595438951464681</v>
+        <v>0.004595438951464672</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6250544330132463</v>
+        <v>0.6250544330132466</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001103970106513943</v>
+        <v>-0.0001103970106513942</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001307439151577172</v>
+        <v>-0.0001307439151577171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.412080586049639E-05</v>
+        <v>3.816644023023515E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.371234768483483E-06</v>
+        <v>2.318410180465121E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000409206915611</v>
+        <v>0.0999999986091612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.875004045550012</v>
+        <v>0.8749999878301605</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01008897968694154</v>
+        <v>0.009999985952528137</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1.235046560754107</v>
+        <v>0.7802091060682188</v>
       </c>
     </row>
   </sheetData>
